--- a/DadosEIM.xlsx
+++ b/DadosEIM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Regramento" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="330">
   <si>
     <t>N.S.</t>
   </si>
@@ -1211,6 +1211,9 @@
   </si>
   <si>
     <t>(Yowa Sudas, 2020)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1421,9 +1424,6 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1445,10 +1445,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1736,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,7 +1818,9 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1838,9 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1851,7 +1858,9 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1866,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -2185,10 +2194,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="9">
         <v>2.0499999999999998</v>
       </c>
@@ -2212,1292 +2221,1292 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="344.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:4" ht="306" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="11" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="395.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:4" ht="357" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
-    <row r="14" spans="1:4" ht="332.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="19" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="14" t="s">
+      <c r="A36" s="20"/>
+      <c r="B36" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="20"/>
+      <c r="B37" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="14" t="s">
+      <c r="A38" s="20"/>
+      <c r="B38" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
     </row>
     <row r="39" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>144</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="15" t="s">
+      <c r="D42" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="14" t="s">
+      <c r="A44" s="20"/>
+      <c r="B44" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>158</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="14" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="14" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
     </row>
     <row r="49" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="14" t="s">
+      <c r="A49" s="20"/>
+      <c r="B49" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
     </row>
     <row r="50" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="14" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
     </row>
     <row r="51" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="14" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
     </row>
     <row r="52" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="14" t="s">
+      <c r="A52" s="20"/>
+      <c r="B52" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
     </row>
     <row r="53" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="14" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="14" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
     </row>
     <row r="55" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="14" t="s">
+      <c r="A55" s="20"/>
+      <c r="B55" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
     </row>
     <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="14" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
     </row>
     <row r="57" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>173</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15" t="s">
+      <c r="C58" s="14"/>
+      <c r="D58" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="78" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="14" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
     </row>
     <row r="61" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="14" t="s">
+      <c r="A61" s="20"/>
+      <c r="B61" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
     </row>
     <row r="62" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15" t="s">
+      <c r="C63" s="14"/>
+      <c r="D63" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15" t="s">
+      <c r="C65" s="14"/>
+      <c r="D65" s="14" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15" t="s">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16" t="s">
+      <c r="A68" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15" t="s">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
+      <c r="A69" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="14"/>
+      <c r="D69" s="14" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="14"/>
+      <c r="D70" s="14" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>211</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16" t="s">
+      <c r="A73" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="14"/>
+      <c r="D73" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16" t="s">
+      <c r="A74" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="D74" s="15" t="s">
+      <c r="D74" s="14" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15" t="s">
+      <c r="C75" s="14"/>
+      <c r="D75" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15" t="s">
+      <c r="C76" s="14"/>
+      <c r="D76" s="14" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16" t="s">
+      <c r="A77" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="14"/>
+      <c r="D77" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C78" s="15"/>
-      <c r="D78" s="17" t="s">
+      <c r="C78" s="14"/>
+      <c r="D78" s="16" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15" t="s">
+      <c r="C80" s="14"/>
+      <c r="D80" s="14" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15" t="s">
+      <c r="C81" s="14"/>
+      <c r="D81" s="14" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15" t="s">
+      <c r="C82" s="14"/>
+      <c r="D82" s="14" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="383.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15" t="s">
+      <c r="C83" s="14"/>
+      <c r="D83" s="14" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15" t="s">
+      <c r="C84" s="14"/>
+      <c r="D84" s="14" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15" t="s">
+      <c r="C85" s="14"/>
+      <c r="D85" s="14" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15" t="s">
+      <c r="C86" s="14"/>
+      <c r="D86" s="14" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15" t="s">
+      <c r="C87" s="14"/>
+      <c r="D87" s="14" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15" t="s">
+      <c r="C88" s="14"/>
+      <c r="D88" s="14" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15" t="s">
+      <c r="C89" s="14"/>
+      <c r="D89" s="14" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20" t="s">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="14" t="s">
+      <c r="A91" s="20"/>
+      <c r="B91" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
     </row>
     <row r="92" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="14" t="s">
         <v>264</v>
       </c>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="B93" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15" t="s">
+      <c r="C93" s="14"/>
+      <c r="D93" s="14" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B94" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="14" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="14" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C96" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="14" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C97" s="15" t="s">
+      <c r="C97" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="14" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="B98" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15" t="s">
+      <c r="C98" s="14"/>
+      <c r="D98" s="14" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B99" s="15" t="s">
+      <c r="B99" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15" t="s">
+      <c r="C99" s="14"/>
+      <c r="D99" s="14" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20" t="s">
+      <c r="C100" s="19"/>
+      <c r="D100" s="19" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="14" t="s">
+      <c r="A101" s="20"/>
+      <c r="B101" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
     </row>
     <row r="102" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="14" t="s">
+      <c r="A102" s="20"/>
+      <c r="B102" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
     </row>
     <row r="103" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
-      <c r="B103" s="14" t="s">
+      <c r="A103" s="20"/>
+      <c r="B103" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
     </row>
     <row r="104" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21"/>
-      <c r="B104" s="15" t="s">
+      <c r="B104" s="14" t="s">
         <v>292</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15" t="s">
+      <c r="C105" s="14"/>
+      <c r="D105" s="14" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C106" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="14" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="B107" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="C107" s="15" t="s">
+      <c r="C107" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="14" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15" t="s">
+      <c r="C108" s="14"/>
+      <c r="D108" s="14" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="396" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="14" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15" t="s">
+      <c r="C110" s="14"/>
+      <c r="D110" s="14" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15" t="s">
+      <c r="C111" s="14"/>
+      <c r="D111" s="14" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B112" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15" t="s">
+      <c r="C112" s="14"/>
+      <c r="D112" s="14" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="20" t="s">
+      <c r="A113" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20" t="s">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="19"/>
-      <c r="B114" s="14" t="s">
+      <c r="A114" s="20"/>
+      <c r="B114" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="20"/>
     </row>
     <row r="115" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A115" s="19"/>
-      <c r="B115" s="14" t="s">
+      <c r="A115" s="20"/>
+      <c r="B115" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="C115" s="19"/>
-      <c r="D115" s="19"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="20"/>
     </row>
     <row r="116" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="19"/>
-      <c r="B116" s="14" t="s">
+      <c r="A116" s="20"/>
+      <c r="B116" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
     </row>
     <row r="117" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="19"/>
-      <c r="B117" s="14" t="s">
+      <c r="A117" s="20"/>
+      <c r="B117" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="20"/>
     </row>
     <row r="118" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="19"/>
-      <c r="B118" s="14" t="s">
+      <c r="A118" s="20"/>
+      <c r="B118" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C118" s="19"/>
-      <c r="D118" s="19"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="20"/>
     </row>
     <row r="119" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
-      <c r="B119" s="15" t="s">
+      <c r="B119" s="14" t="s">
         <v>327</v>
       </c>
       <c r="C119" s="21"/>
@@ -3505,48 +3514,48 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="C47:C57"/>
+    <mergeCell ref="D47:D57"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
     <mergeCell ref="A100:A104"/>
     <mergeCell ref="C100:C104"/>
     <mergeCell ref="D100:D104"/>
     <mergeCell ref="A113:A119"/>
     <mergeCell ref="C113:C119"/>
     <mergeCell ref="D113:D119"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A47:A57"/>
-    <mergeCell ref="C47:C57"/>
-    <mergeCell ref="D47:D57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DadosEIM.xlsx
+++ b/DadosEIM.xlsx
@@ -28,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="330">
   <si>
-    <t>N.S.</t>
-  </si>
-  <si>
     <t>Atual</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Regra</t>
   </si>
   <si>
-    <t>A a C</t>
-  </si>
-  <si>
     <t>ICU= 33%</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>Compensar/Mitigar</t>
   </si>
   <si>
-    <t>A a D</t>
-  </si>
-  <si>
     <t>Superior a D</t>
   </si>
   <si>
@@ -85,16 +76,7 @@
     <t>D</t>
   </si>
   <si>
-    <t>Variação &gt; 2 pontos percentuais</t>
-  </si>
-  <si>
     <t>Mitigar para manter nível menor ou igual a D</t>
-  </si>
-  <si>
-    <t>E a H</t>
-  </si>
-  <si>
-    <t>Variação &gt; 1 ponto percentual</t>
   </si>
   <si>
     <t>Mitigar para manter o mesmo nível de serviço</t>
@@ -1214,6 +1196,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Nível de Serviço</t>
+  </si>
+  <si>
+    <t>D, com variação &gt; 2 pontos percentuais</t>
+  </si>
+  <si>
+    <t>[A, C]</t>
+  </si>
+  <si>
+    <t>[A, D]</t>
+  </si>
+  <si>
+    <t>[E, H]</t>
+  </si>
+  <si>
+    <t>[E,a H] com Variação &gt; 1 ponto percentual</t>
   </si>
 </sst>
 </file>
@@ -1740,129 +1740,129 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1887,18 +1887,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6">
         <v>1100</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6">
         <v>1116.5</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6">
         <v>1133.2474999999999</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="6">
         <v>1150.2462129999999</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="6">
         <v>1167.499906</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="6">
         <v>1185.0124040000001</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B8" s="6">
         <v>1202.7875899999999</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6">
         <v>1220.8294040000001</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6">
         <v>1239.1418450000001</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="6">
         <v>1257.728973</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B12" s="6">
         <v>1276.594908</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B13" s="6">
         <v>1295.743831</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B14" s="6">
         <v>1315.179989</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B15" s="6">
         <v>1334.907688</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6">
         <v>1354.931304</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="6">
         <v>1375.255273</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" s="6">
         <v>1395.884102</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6">
         <v>1416.8223640000001</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6">
         <v>1438.074699</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B21" s="6">
         <v>1459.64582</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B22" s="6">
         <v>1481.5405069999999</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6">
         <v>1503.7636150000001</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B24" s="6">
         <v>1526.3200690000001</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="6">
         <v>1549.21487</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B26" s="6">
         <v>1572.4530930000001</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B27" s="6">
         <v>1596.03989</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B28" s="9">
         <v>0.45094535400000002</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="9">
@@ -2222,34 +2222,34 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2257,281 +2257,281 @@
     <row r="4" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="357" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="14" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2539,7 +2539,7 @@
     <row r="29" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -2547,7 +2547,7 @@
     <row r="30" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -2555,53 +2555,53 @@
     <row r="31" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -2609,7 +2609,7 @@
     <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -2617,7 +2617,7 @@
     <row r="37" spans="1:4" ht="153" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2625,7 +2625,7 @@
     <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -2633,65 +2633,65 @@
     <row r="39" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="13" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -2699,41 +2699,41 @@
     <row r="45" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="14" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -2741,7 +2741,7 @@
     <row r="49" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -2749,7 +2749,7 @@
     <row r="50" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -2757,7 +2757,7 @@
     <row r="51" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -2765,7 +2765,7 @@
     <row r="52" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -2773,7 +2773,7 @@
     <row r="53" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -2781,7 +2781,7 @@
     <row r="54" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -2789,7 +2789,7 @@
     <row r="55" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -2797,7 +2797,7 @@
     <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="13" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -2805,39 +2805,39 @@
     <row r="57" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="14" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="78" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="13" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -2845,7 +2845,7 @@
     <row r="61" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -2853,355 +2853,355 @@
     <row r="62" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="16" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="14" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="383.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="13" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -3209,119 +3209,119 @@
     <row r="92" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
       <c r="B92" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="14" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="13" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -3329,7 +3329,7 @@
     <row r="102" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="13" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -3337,7 +3337,7 @@
     <row r="103" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103" s="13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -3345,129 +3345,129 @@
     <row r="104" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21"/>
       <c r="B104" s="14" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="14" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="396" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="14" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="14" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="13" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -3475,7 +3475,7 @@
     <row r="115" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="B115" s="13" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -3483,7 +3483,7 @@
     <row r="116" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="B116" s="13" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -3491,7 +3491,7 @@
     <row r="117" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A117" s="20"/>
       <c r="B117" s="13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -3499,7 +3499,7 @@
     <row r="118" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="B118" s="13" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -3507,7 +3507,7 @@
     <row r="119" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
       <c r="B119" s="14" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>

--- a/DadosEIM.xlsx
+++ b/DadosEIM.xlsx
@@ -52,9 +52,6 @@
     <t>ICU=38+, variação = 15,15%</t>
   </si>
   <si>
-    <t>Mitigar no local de avaliação do Nível de Serviço</t>
-  </si>
-  <si>
     <t>ICU= 61%</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>ICU=63+, variação = 3,28%</t>
-  </si>
-  <si>
-    <t>Compensar/Mitigar</t>
   </si>
   <si>
     <t>Superior a D</t>
@@ -1214,6 +1208,12 @@
   </si>
   <si>
     <t>[E,a H] com Variação &gt; 1 ponto percentual</t>
+  </si>
+  <si>
+    <t>Se &gt;2, Mitigar no local de avaliação do Nível de Serviço</t>
+  </si>
+  <si>
+    <t>Se &lt;=2, Compensar/Mitigar</t>
   </si>
 </sst>
 </file>
@@ -1740,14 +1740,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="2" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1782,87 +1782,87 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="4">
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1887,18 +1887,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6">
         <v>1100</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6">
         <v>1116.5</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6">
         <v>1133.2474999999999</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="6">
         <v>1150.2462129999999</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6">
         <v>1167.499906</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6">
         <v>1185.0124040000001</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6">
         <v>1202.7875899999999</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="6">
         <v>1220.8294040000001</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6">
         <v>1239.1418450000001</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6">
         <v>1257.728973</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6">
         <v>1276.594908</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="6">
         <v>1295.743831</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6">
         <v>1315.179989</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="6">
         <v>1334.907688</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6">
         <v>1354.931304</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="6">
         <v>1375.255273</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" s="6">
         <v>1395.884102</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6">
         <v>1416.8223640000001</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="6">
         <v>1438.074699</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6">
         <v>1459.64582</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6">
         <v>1481.5405069999999</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B23" s="6">
         <v>1503.7636150000001</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="6">
         <v>1526.3200690000001</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="6">
         <v>1549.21487</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="6">
         <v>1572.4530930000001</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B27" s="6">
         <v>1596.03989</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="9">
         <v>0.45094535400000002</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="9">
@@ -2222,34 +2222,34 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="306" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -2257,281 +2257,281 @@
     <row r="4" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="357" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="D16" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="20"/>
@@ -2539,7 +2539,7 @@
     <row r="29" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
@@ -2547,7 +2547,7 @@
     <row r="30" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="20"/>
@@ -2555,53 +2555,53 @@
     <row r="31" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="D33" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C34" s="19"/>
       <c r="D34" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
@@ -2609,7 +2609,7 @@
     <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="20"/>
@@ -2617,7 +2617,7 @@
     <row r="37" spans="1:4" ht="153" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
@@ -2625,7 +2625,7 @@
     <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
@@ -2633,65 +2633,65 @@
     <row r="39" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="21"/>
       <c r="B39" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" s="21"/>
       <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="D42" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="19"/>
       <c r="D43" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="20"/>
@@ -2699,41 +2699,41 @@
     <row r="45" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="21"/>
       <c r="B45" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C45" s="21"/>
       <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C47" s="19"/>
       <c r="D47" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A48" s="20"/>
       <c r="B48" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -2741,7 +2741,7 @@
     <row r="49" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A49" s="20"/>
       <c r="B49" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
@@ -2749,7 +2749,7 @@
     <row r="50" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
@@ -2757,7 +2757,7 @@
     <row r="51" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
       <c r="B51" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
@@ -2765,7 +2765,7 @@
     <row r="52" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C52" s="20"/>
       <c r="D52" s="20"/>
@@ -2773,7 +2773,7 @@
     <row r="53" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="20"/>
       <c r="B53" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -2781,7 +2781,7 @@
     <row r="54" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -2789,7 +2789,7 @@
     <row r="55" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
       <c r="B55" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="20"/>
@@ -2797,7 +2797,7 @@
     <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A56" s="20"/>
       <c r="B56" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C56" s="20"/>
       <c r="D56" s="20"/>
@@ -2805,39 +2805,39 @@
     <row r="57" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="21"/>
       <c r="B57" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C57" s="21"/>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="78" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
       <c r="A60" s="20"/>
       <c r="B60" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C60" s="20"/>
       <c r="D60" s="20"/>
@@ -2845,7 +2845,7 @@
     <row r="61" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
       <c r="A61" s="20"/>
       <c r="B61" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C61" s="20"/>
       <c r="D61" s="20"/>
@@ -2853,355 +2853,355 @@
     <row r="62" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21"/>
       <c r="B62" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
     </row>
     <row r="63" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="D64" s="14" t="s">
         <v>182</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>188</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="21"/>
       <c r="B72" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
     </row>
     <row r="73" spans="1:4" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="D74" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>227</v>
-      </c>
       <c r="D79" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="383.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C87" s="14"/>
       <c r="D87" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" s="14"/>
       <c r="D88" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A91" s="20"/>
       <c r="B91" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C91" s="20"/>
       <c r="D91" s="20"/>
@@ -3209,119 +3209,119 @@
     <row r="92" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="21"/>
       <c r="B92" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C93" s="14"/>
       <c r="D93" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="D94" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="D95" s="14" t="s">
         <v>268</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="D97" s="14" t="s">
         <v>274</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C100" s="19"/>
       <c r="D100" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A101" s="20"/>
       <c r="B101" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C101" s="20"/>
       <c r="D101" s="20"/>
@@ -3329,7 +3329,7 @@
     <row r="102" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A102" s="20"/>
       <c r="B102" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
@@ -3337,7 +3337,7 @@
     <row r="103" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
@@ -3345,129 +3345,129 @@
     <row r="104" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="21"/>
       <c r="B104" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="21"/>
     </row>
     <row r="105" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C105" s="14"/>
       <c r="D105" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B106" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="D106" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="D107" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C108" s="14"/>
       <c r="D108" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="396" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C109" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="D109" s="14" t="s">
         <v>302</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="19" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="13" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C114" s="20"/>
       <c r="D114" s="20"/>
@@ -3475,7 +3475,7 @@
     <row r="115" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="B115" s="13" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C115" s="20"/>
       <c r="D115" s="20"/>
@@ -3483,7 +3483,7 @@
     <row r="116" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="B116" s="13" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C116" s="20"/>
       <c r="D116" s="20"/>
@@ -3491,7 +3491,7 @@
     <row r="117" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A117" s="20"/>
       <c r="B117" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C117" s="20"/>
       <c r="D117" s="20"/>
@@ -3499,7 +3499,7 @@
     <row r="118" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A118" s="20"/>
       <c r="B118" s="13" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="20"/>
@@ -3507,55 +3507,55 @@
     <row r="119" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="21"/>
       <c r="B119" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C119" s="21"/>
       <c r="D119" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="C113:C119"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="C47:C57"/>
+    <mergeCell ref="D47:D57"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A47:A57"/>
-    <mergeCell ref="C47:C57"/>
-    <mergeCell ref="D47:D57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="C113:C119"/>
-    <mergeCell ref="D113:D119"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DadosEIM.xlsx
+++ b/DadosEIM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Regramento" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="329">
   <si>
     <t>Atual</t>
   </si>
@@ -161,12 +161,6 @@
   </si>
   <si>
     <t>Ano 25</t>
-  </si>
-  <si>
-    <t>Variação</t>
-  </si>
-  <si>
-    <t>Quociente da Variação</t>
   </si>
   <si>
     <t>Local</t>
@@ -1215,12 +1209,15 @@
   <si>
     <t>Se &lt;=2, Compensar/Mitigar</t>
   </si>
+  <si>
+    <t>Ano 26</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,13 +1244,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
@@ -1275,7 +1265,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,6 +1281,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,7 +1388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1415,15 +1411,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1439,14 +1426,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1457,6 +1441,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1739,7 +1727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -1747,7 +1735,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1767,7 +1755,7 @@
     </row>
     <row r="2" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1782,12 +1770,12 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -1802,24 +1790,24 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
@@ -1836,10 +1824,10 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>14</v>
@@ -1847,19 +1835,19 @@
     </row>
     <row r="6" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>15</v>
@@ -1873,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,7 +1873,7 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1895,8 +1883,14 @@
       <c r="C1" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -1906,8 +1900,14 @@
       <c r="C2" s="7">
         <v>1100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="6">
+        <v>1100</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
@@ -1917,8 +1917,16 @@
       <c r="C3" s="7">
         <v>1129.1500000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>D2*1.015</f>
+        <v>1116.5</v>
+      </c>
+      <c r="E3">
+        <f>E2*1.0265</f>
+        <v>1129.1499999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1928,8 +1936,16 @@
       <c r="C4" s="7">
         <v>1159.0724749999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" ref="D4:D28" si="0">D3*1.015</f>
+        <v>1133.2474999999999</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E28" si="1">E3*1.0265</f>
+        <v>1159.0724749999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +1955,16 @@
       <c r="C5" s="7">
         <v>1189.787896</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1150.2462124999997</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1189.7878955874996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1950,8 +1974,16 @@
       <c r="C6" s="7">
         <v>1221.3172750000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1167.4999056874997</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1221.3172748205684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
@@ -1961,8 +1993,16 @@
       <c r="C7" s="7">
         <v>1253.6821829999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1185.0124042728121</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1253.6821826033133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -1972,8 +2012,16 @@
       <c r="C8" s="7">
         <v>1286.9047599999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1202.7875903369043</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1286.904760442301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2031,16 @@
       <c r="C9" s="7">
         <v>1321.0077369999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1220.8294041919578</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>1321.0077365940219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
@@ -1994,8 +2050,16 @@
       <c r="C10" s="7">
         <v>1356.0144419999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1239.1418452548371</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>1356.0144416137634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2005,8 +2069,16 @@
       <c r="C11" s="7">
         <v>1391.9488240000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1257.7289729336596</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1391.9488243165281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>29</v>
       </c>
@@ -2016,8 +2088,16 @@
       <c r="C12" s="7">
         <v>1428.835468</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1276.5949075276644</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>1428.835468160916</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -2027,8 +2107,16 @@
       <c r="C13" s="7">
         <v>1466.6996079999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1295.7438311405792</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>1466.6996080671802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -2038,8 +2126,16 @@
       <c r="C14" s="7">
         <v>1505.5671480000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1315.1799886076878</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>1505.5671476809605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
@@ -2049,8 +2145,16 @@
       <c r="C15" s="7">
         <v>1545.4646769999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>1334.907688436803</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>1545.464677094506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
@@ -2060,8 +2164,16 @@
       <c r="C16" s="7">
         <v>1586.4194910000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>1354.9313037633549</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>1586.4194910375104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -2071,8 +2183,16 @@
       <c r="C17" s="6">
         <v>1628.4596079999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1375.2552733198052</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1628.4596075500044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
@@ -2082,8 +2202,16 @@
       <c r="C18" s="6">
         <v>1671.613787</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>1395.8841024196022</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1671.6137871500796</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>36</v>
       </c>
@@ -2093,8 +2221,16 @@
       <c r="C19" s="6">
         <v>1715.9115529999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1416.822363955896</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1715.9115525095567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2104,8 +2240,16 @@
       <c r="C20" s="6">
         <v>1761.3832090000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1438.0746994152344</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1761.3832086510599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -2115,8 +2259,16 @@
       <c r="C21" s="6">
         <v>1808.0598640000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1459.6458199064627</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1808.0598636803129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
@@ -2126,8 +2278,16 @@
       <c r="C22" s="6">
         <v>1855.97345</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>1481.5405072050596</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1855.9734500678412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -2137,8 +2297,16 @@
       <c r="C23" s="6">
         <v>1905.1567460000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>1503.7636148131353</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1905.156746494639</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>41</v>
       </c>
@@ -2148,8 +2316,16 @@
       <c r="C24" s="6">
         <v>1955.6433999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1526.3200690353322</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1955.6434002767469</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>42</v>
       </c>
@@ -2159,53 +2335,75 @@
       <c r="C25" s="6">
         <v>2007.46795</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>1549.2148700708619</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2007.4679503840807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="18">
         <v>1572.4530930000001</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="18">
         <v>2060.6658510000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>1572.4530931219247</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>2060.6658510692587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="18">
         <v>1596.03989</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="18">
         <v>2115.2734959999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="9">
-        <v>0.45094535400000002</v>
-      </c>
-      <c r="C28" s="10">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="9">
-        <v>2.0499999999999998</v>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>1596.0398895187534</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>2115.2734961225938</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" s="19">
+        <f t="shared" ref="B28" si="2">B27*1.015</f>
+        <v>1619.9804883499999</v>
+      </c>
+      <c r="C28" s="19">
+        <f t="shared" ref="C28" si="3">C27*1.0265</f>
+        <v>2171.3282436439999</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>1619.9804878615346</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>2171.3282437698426</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A29:B29"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2221,1341 +2419,1341 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="306" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="306" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="13" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="357" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-    </row>
-    <row r="4" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-    </row>
-    <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+    </row>
+    <row r="32" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+    </row>
+    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" ht="153" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+    </row>
+    <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="153" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+    </row>
+    <row r="53" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+    </row>
+    <row r="54" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+    </row>
+    <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="78" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+    </row>
+    <row r="61" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="16"/>
+      <c r="B61" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+    </row>
+    <row r="62" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17"/>
+      <c r="B62" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="17"/>
+      <c r="B72" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+    </row>
+    <row r="73" spans="1:4" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="11" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="357" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-    </row>
-    <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="14" t="s">
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="383.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+    </row>
+    <row r="92" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="17"/>
+      <c r="B92" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B96" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="C96" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14" t="s">
+      <c r="D96" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B98" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="C98" s="11"/>
+      <c r="D98" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-    </row>
-    <row r="32" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-    </row>
-    <row r="40" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="14" t="s">
+    </row>
+    <row r="99" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+    </row>
+    <row r="102" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A102" s="16"/>
+      <c r="B102" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+    </row>
+    <row r="103" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+    </row>
+    <row r="104" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="17"/>
+      <c r="B104" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-    </row>
-    <row r="46" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-    </row>
-    <row r="52" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="20"/>
-      <c r="B54" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-    </row>
-    <row r="55" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
-      <c r="B55" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-    </row>
-    <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-    </row>
-    <row r="57" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-    </row>
-    <row r="58" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="78" x14ac:dyDescent="0.25">
-      <c r="A59" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
-      <c r="B60" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-    </row>
-    <row r="61" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
-      <c r="B61" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-    </row>
-    <row r="62" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-    </row>
-    <row r="63" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-    </row>
-    <row r="73" spans="1:4" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="383.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
-      <c r="B91" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-    </row>
-    <row r="92" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
-      <c r="B92" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-    </row>
-    <row r="93" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B95" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B97" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="s">
+      <c r="C105" s="11"/>
+      <c r="D105" s="11" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="20"/>
-      <c r="B101" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A102" s="20"/>
-      <c r="B102" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-    </row>
-    <row r="103" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="20"/>
-      <c r="B103" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-    </row>
-    <row r="104" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-    </row>
-    <row r="105" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
+    <row r="106" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14" t="s">
+      <c r="B106" s="14" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
+      <c r="C106" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B106" s="17" t="s">
+      <c r="D106" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C106" s="14" t="s">
+    </row>
+    <row r="107" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D106" s="14" t="s">
+      <c r="B107" s="11" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
+      <c r="C107" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="D107" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="C107" s="14" t="s">
+    </row>
+    <row r="108" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="B108" s="14" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
+      <c r="C108" s="11"/>
+      <c r="D108" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B108" s="17" t="s">
+    </row>
+    <row r="109" spans="1:4" ht="396" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14" t="s">
+      <c r="B109" s="11" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="396" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
+      <c r="C109" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="D109" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C109" s="14" t="s">
+    </row>
+    <row r="110" spans="1:4" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="B110" s="11" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B110" s="14" t="s">
+    </row>
+    <row r="111" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14" t="s">
+      <c r="B111" s="11" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="B111" s="14" t="s">
+    </row>
+    <row r="112" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14" t="s">
+      <c r="B112" s="11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B112" s="14" t="s">
+    </row>
+    <row r="113" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14" t="s">
+      <c r="B113" s="10" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="19" t="s">
+      <c r="C113" s="15"/>
+      <c r="D113" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="B113" s="13" t="s">
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+    </row>
+    <row r="115" spans="1:4" ht="102" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="20"/>
-      <c r="B114" s="13" t="s">
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+    </row>
+    <row r="116" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C114" s="20"/>
-      <c r="D114" s="20"/>
-    </row>
-    <row r="115" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A115" s="20"/>
-      <c r="B115" s="13" t="s">
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+    </row>
+    <row r="117" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-    </row>
-    <row r="116" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="20"/>
-      <c r="B116" s="13" t="s">
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+    </row>
+    <row r="118" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-    </row>
-    <row r="117" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="20"/>
-      <c r="B117" s="13" t="s">
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+    </row>
+    <row r="119" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="17"/>
+      <c r="B119" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-    </row>
-    <row r="118" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="20"/>
-      <c r="B118" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C118" s="20"/>
-      <c r="D118" s="20"/>
-    </row>
-    <row r="119" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="21"/>
-      <c r="B119" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="C47:C57"/>
+    <mergeCell ref="D47:D57"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
     <mergeCell ref="A100:A104"/>
     <mergeCell ref="C100:C104"/>
     <mergeCell ref="D100:D104"/>
     <mergeCell ref="A113:A119"/>
     <mergeCell ref="C113:C119"/>
     <mergeCell ref="D113:D119"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A47:A57"/>
-    <mergeCell ref="C47:C57"/>
-    <mergeCell ref="D47:D57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/DadosEIM.xlsx
+++ b/DadosEIM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Regramento" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="331">
   <si>
     <t>Atual</t>
   </si>
@@ -1204,13 +1204,19 @@
     <t>[E,a H] com Variação &gt; 1 ponto percentual</t>
   </si>
   <si>
-    <t>Se &gt;2, Mitigar no local de avaliação do Nível de Serviço</t>
-  </si>
-  <si>
-    <t>Se &lt;=2, Compensar/Mitigar</t>
-  </si>
-  <si>
     <t>Ano 26</t>
+  </si>
+  <si>
+    <t>CrescimentoNatural</t>
+  </si>
+  <si>
+    <t>CrescimentoComEmpreendimento</t>
+  </si>
+  <si>
+    <t>Se &gt;4, Mitigar no local de avaliação do Nível de Serviço</t>
+  </si>
+  <si>
+    <t>Se &gt;=2, Compensar/Mitigar</t>
   </si>
 </sst>
 </file>
@@ -1432,6 +1438,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1441,10 +1451,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1727,11 +1733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1753,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>322</v>
       </c>
@@ -1770,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>322</v>
       </c>
@@ -1790,10 +1796,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>323</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1833,7 +1839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>324</v>
       </c>
@@ -1863,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1884,10 +1890,10 @@
         <v>18</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>327</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>18</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2348,10 +2354,10 @@
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="15">
         <v>1572.4530930000001</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="15">
         <v>2060.6658510000002</v>
       </c>
       <c r="D26">
@@ -2367,10 +2373,10 @@
       <c r="A27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="15">
         <v>1596.03989</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="15">
         <v>2115.2734959999998</v>
       </c>
       <c r="D27">
@@ -2384,13 +2390,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B28" s="19">
+        <v>326</v>
+      </c>
+      <c r="B28" s="16">
         <f t="shared" ref="B28" si="2">B27*1.015</f>
         <v>1619.9804883499999</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="16">
         <f t="shared" ref="C28" si="3">C27*1.0265</f>
         <v>2171.3282436439999</v>
       </c>
@@ -2433,32 +2439,32 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="306" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+    <row r="3" spans="1:4" ht="344.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-    </row>
-    <row r="4" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
@@ -2520,7 +2526,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>69</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="281.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>72</v>
       </c>
@@ -2544,27 +2550,27 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="357" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:4" ht="395.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="332.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>79</v>
       </c>
@@ -2589,46 +2595,46 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="17" t="s">
         <v>84</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
@@ -2643,24 +2649,24 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="17" t="s">
         <v>96</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
@@ -2715,48 +2721,48 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="17" t="s">
         <v>114</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
@@ -2785,56 +2791,56 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>128</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15" t="s">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
@@ -2875,32 +2881,32 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="17" t="s">
         <v>145</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="153" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
@@ -2917,96 +2923,96 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="17" t="s">
         <v>152</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A55" s="16"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
@@ -3021,40 +3027,40 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="78" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15" t="s">
+      <c r="C59" s="17"/>
+      <c r="D59" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="16"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="16"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
+      <c r="A62" s="19"/>
       <c r="B62" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
@@ -3157,24 +3163,24 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="17" t="s">
         <v>199</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15" t="s">
+      <c r="C71" s="17"/>
+      <c r="D71" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
@@ -3385,32 +3391,32 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="17" t="s">
         <v>251</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="17"/>
+      <c r="D90" s="17" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
+      <c r="A92" s="19"/>
       <c r="B92" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
@@ -3505,48 +3511,48 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="15" t="s">
+      <c r="A100" s="17" t="s">
         <v>277</v>
       </c>
       <c r="B100" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15" t="s">
+      <c r="C100" s="17"/>
+      <c r="D100" s="17" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="16"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A102" s="16"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
     </row>
     <row r="103" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
     </row>
     <row r="104" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
+      <c r="A104" s="19"/>
       <c r="B104" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
     </row>
     <row r="105" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
@@ -3651,64 +3657,64 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="17" t="s">
         <v>310</v>
       </c>
       <c r="B113" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15" t="s">
+      <c r="C113" s="17"/>
+      <c r="D113" s="17" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="16"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
     </row>
     <row r="115" spans="1:4" ht="102" x14ac:dyDescent="0.25">
-      <c r="A115" s="16"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
     </row>
     <row r="116" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A116" s="16"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
     </row>
     <row r="117" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A117" s="16"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="16"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
+      <c r="A119" s="19"/>
       <c r="B119" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="42">

--- a/DadosEIM.xlsx
+++ b/DadosEIM.xlsx
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>Mitigar para manter nível menor ou igual a D</t>
   </si>
   <si>
     <t>Mitigar para manter o mesmo nível de serviço</t>
@@ -1217,6 +1214,9 @@
   </si>
   <si>
     <t>Se &gt;=2, Compensar/Mitigar</t>
+  </si>
+  <si>
+    <t>Mitigar para manter o nível de serviço menor ou igual ao percentual de capacidae atual</t>
   </si>
 </sst>
 </file>
@@ -1733,15 +1733,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -1776,12 +1776,12 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -1796,30 +1796,30 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1830,33 +1830,33 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="90" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1881,24 +1881,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="6">
         <v>1100</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <v>1116.5</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>1133.2474999999999</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="6">
         <v>1150.2462129999999</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="6">
         <v>1167.499906</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6">
         <v>1185.0124040000001</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="6">
         <v>1202.7875899999999</v>
@@ -2029,7 +2029,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6">
         <v>1220.8294040000001</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6">
         <v>1239.1418450000001</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="6">
         <v>1257.728973</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="6">
         <v>1276.594908</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6">
         <v>1295.743831</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6">
         <v>1315.179989</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="6">
         <v>1334.907688</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="6">
         <v>1354.931304</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6">
         <v>1375.255273</v>
@@ -2200,7 +2200,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6">
         <v>1395.884102</v>
@@ -2219,7 +2219,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="6">
         <v>1416.8223640000001</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="6">
         <v>1438.074699</v>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="6">
         <v>1459.64582</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="6">
         <v>1481.5405069999999</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="6">
         <v>1503.7636150000001</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6">
         <v>1526.3200690000001</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="6">
         <v>1549.21487</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="15">
         <v>1572.4530930000001</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="15">
         <v>1596.03989</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B28" s="16">
         <f t="shared" ref="B28" si="2">B27*1.015</f>
@@ -2426,34 +2426,34 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="344.25" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -2461,281 +2461,281 @@
     <row r="4" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>61</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="395.25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="332.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>85</v>
-      </c>
       <c r="C16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>115</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -2743,7 +2743,7 @@
     <row r="29" spans="1:4" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -2751,7 +2751,7 @@
     <row r="30" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -2759,53 +2759,53 @@
     <row r="31" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
       <c r="B31" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="19"/>
       <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>122</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -2813,7 +2813,7 @@
     <row r="36" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -2821,7 +2821,7 @@
     <row r="37" spans="1:4" ht="153" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -2829,7 +2829,7 @@
     <row r="38" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A38" s="18"/>
       <c r="B38" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -2837,65 +2837,65 @@
     <row r="39" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C39" s="19"/>
       <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>139</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="153" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -2903,41 +2903,41 @@
     <row r="45" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="C46" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="178.5" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -2945,7 +2945,7 @@
     <row r="49" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -2953,7 +2953,7 @@
     <row r="50" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A50" s="18"/>
       <c r="B50" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -2961,7 +2961,7 @@
     <row r="51" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A51" s="18"/>
       <c r="B51" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -2969,7 +2969,7 @@
     <row r="52" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -2977,7 +2977,7 @@
     <row r="53" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -2985,7 +2985,7 @@
     <row r="54" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -2993,7 +2993,7 @@
     <row r="55" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -3001,7 +3001,7 @@
     <row r="56" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -3009,39 +3009,39 @@
     <row r="57" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="19"/>
       <c r="B57" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" s="19"/>
       <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="11" t="s">
         <v>165</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="78" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -3049,7 +3049,7 @@
     <row r="61" spans="1:4" ht="66.75" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -3057,355 +3057,355 @@
     <row r="62" spans="1:4" ht="67.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="19"/>
       <c r="B62" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>174</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>175</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="C64" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="D64" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="11" t="s">
         <v>190</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>191</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B69" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>194</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>196</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>197</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="C71" s="17"/>
       <c r="D71" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="370.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19"/>
       <c r="B72" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="153.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="C74" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D74" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>211</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B77" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>218</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>219</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C79" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="D79" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B80" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>230</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="383.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B83" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>233</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B84" s="11" t="s">
         <v>235</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>238</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>239</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="11" t="s">
         <v>241</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>242</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="319.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>249</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A91" s="18"/>
       <c r="B91" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
@@ -3413,119 +3413,119 @@
     <row r="92" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="19"/>
       <c r="B92" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
     </row>
     <row r="93" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="11" t="s">
         <v>256</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>257</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="D94" s="11" t="s">
         <v>261</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="C95" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="D95" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="C97" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="D97" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B99" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>278</v>
       </c>
       <c r="C100" s="17"/>
       <c r="D100" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
@@ -3533,7 +3533,7 @@
     <row r="102" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A102" s="18"/>
       <c r="B102" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
@@ -3541,7 +3541,7 @@
     <row r="103" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A103" s="18"/>
       <c r="B103" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
@@ -3549,129 +3549,129 @@
     <row r="104" spans="1:4" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="19"/>
       <c r="B104" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C104" s="19"/>
       <c r="D104" s="19"/>
     </row>
     <row r="105" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="C106" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="D106" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B107" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="C107" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C107" s="11" t="s">
+      <c r="D107" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>294</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>295</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="396" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B109" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="C109" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="D109" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="217.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>301</v>
-      </c>
-      <c r="B110" s="11" t="s">
-        <v>302</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B111" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="B111" s="11" t="s">
-        <v>305</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B112" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="B112" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="229.5" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="C113" s="17"/>
       <c r="D113" s="17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A114" s="18"/>
       <c r="B114" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -3679,7 +3679,7 @@
     <row r="115" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -3687,7 +3687,7 @@
     <row r="116" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A116" s="18"/>
       <c r="B116" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
@@ -3695,7 +3695,7 @@
     <row r="117" spans="1:4" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -3703,7 +3703,7 @@
     <row r="118" spans="1:4" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A118" s="18"/>
       <c r="B118" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
@@ -3711,55 +3711,55 @@
     <row r="119" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="19"/>
       <c r="B119" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C119" s="19"/>
       <c r="D119" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="D100:D104"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="C113:C119"/>
+    <mergeCell ref="D113:D119"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="C47:C57"/>
+    <mergeCell ref="D47:D57"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="A47:A57"/>
-    <mergeCell ref="C47:C57"/>
-    <mergeCell ref="D47:D57"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="D100:D104"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="C113:C119"/>
-    <mergeCell ref="D113:D119"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
